--- a/web/xlsx/loaddata.xlsx
+++ b/web/xlsx/loaddata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senior\main\web\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4AD073-A92A-4363-955D-51DDFE875DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225696E4-70F2-463E-8119-4AFFAAE92CE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="771" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="771" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BloodType" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Gender" sheetId="5" r:id="rId5"/>
     <sheet name="Testes" sheetId="6" r:id="rId6"/>
     <sheet name="Personality" sheetId="10" r:id="rId7"/>
-    <sheet name="User" sheetId="11" r:id="rId8"/>
+    <sheet name="Member" sheetId="11" r:id="rId8"/>
     <sheet name="Profile" sheetId="7" r:id="rId9"/>
     <sheet name="Handler" sheetId="12" r:id="rId10"/>
     <sheet name="Conversation" sheetId="8" r:id="rId11"/>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="E4" s="14">
         <f t="shared" ref="E4:E17" ca="1" si="0">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.8">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.8">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="E7" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.8">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.8">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E9" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.8">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="E10" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.8">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.8">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="E13" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.8">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="E14" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.8">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="E15" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.8">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E16" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.8">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="E17" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.8">
@@ -4526,7 +4526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB743C-72D8-4CEA-AF48-3A679BFBD6B5}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -6914,7 +6914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6988,11 +6988,11 @@
       </c>
       <c r="E3" s="4">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4">
         <f ca="1">RANDBETWEEN(1,2)</f>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E67" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F67" ca="1" si="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:I29" ca="1" si="2">RANDBETWEEN(1,2)</f>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.8">
@@ -7056,11 +7056,11 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="2"/>
@@ -7090,19 +7090,19 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
@@ -7124,11 +7124,11 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.8">
@@ -7158,11 +7158,11 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7186,30 +7186,30 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:C67" ca="1" si="3">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13.8">
@@ -7228,23 +7228,23 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.8">
@@ -7256,14 +7256,14 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.8">
@@ -7302,19 +7302,19 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.8">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -7345,11 +7345,11 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.8">
@@ -7361,18 +7361,18 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="H14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="2"/>
@@ -7396,18 +7396,18 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="13.8">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7442,11 +7442,11 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.8">
@@ -7466,26 +7466,26 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="2"/>
@@ -7501,14 +7501,14 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -7547,11 +7547,11 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.8">
@@ -7571,30 +7571,30 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.8">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -7617,15 +7617,15 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
@@ -7641,26 +7641,26 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
@@ -7676,18 +7676,18 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7711,11 +7711,11 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ref="D24:D67" ca="1" si="4">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7731,11 +7731,11 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.8">
@@ -7747,23 +7747,23 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.8">
@@ -7783,19 +7783,19 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7819,23 +7819,23 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.8">
@@ -7855,23 +7855,23 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7891,19 +7891,19 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7927,19 +7927,19 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" ref="G30:I93" ca="1" si="5">RANDBETWEEN(1,2)</f>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="5"/>
@@ -7963,19 +7963,19 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -7983,11 +7983,11 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.8">
@@ -7999,19 +7999,19 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="5"/>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8047,11 +8047,11 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.8">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -8091,11 +8091,11 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.8">
@@ -8107,19 +8107,19 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="5"/>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="F36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.8">
@@ -8179,27 +8179,27 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="5"/>
@@ -8215,15 +8215,15 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.8">
@@ -8251,19 +8251,19 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.8">
@@ -8287,31 +8287,31 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.8">
@@ -8323,11 +8323,11 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8335,19 +8335,19 @@
       </c>
       <c r="F41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.8">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8371,19 +8371,19 @@
       </c>
       <c r="F42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.8">
@@ -8395,19 +8395,19 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8431,23 +8431,23 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.8">
@@ -8467,19 +8467,19 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8487,11 +8487,11 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.8">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -8519,7 +8519,7 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="13.8">
@@ -8539,31 +8539,31 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.8">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8587,19 +8587,19 @@
       </c>
       <c r="F48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.8">
@@ -8615,27 +8615,27 @@
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.8">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="H50" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="5"/>
@@ -8683,19 +8683,19 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.8">
@@ -8719,27 +8719,27 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="5"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8775,11 +8775,11 @@
       </c>
       <c r="H53" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.8">
@@ -8791,19 +8791,19 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8811,11 +8811,11 @@
       </c>
       <c r="H54" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.8">
@@ -8827,31 +8827,31 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.8">
@@ -8863,31 +8863,31 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.8">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -8907,11 +8907,11 @@
       </c>
       <c r="E57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8919,11 +8919,11 @@
       </c>
       <c r="H57" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.8">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8947,11 +8947,11 @@
       </c>
       <c r="F58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8971,19 +8971,19 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H59" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="5"/>
@@ -9011,23 +9011,23 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="5"/>
@@ -9043,27 +9043,27 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="5"/>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="C62" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="E62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.8">
@@ -9115,19 +9115,19 @@
       </c>
       <c r="C63" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9135,11 +9135,11 @@
       </c>
       <c r="H63" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.8">
@@ -9151,19 +9151,19 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9191,23 +9191,23 @@
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="5"/>
@@ -9223,23 +9223,23 @@
       </c>
       <c r="C66" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9259,11 +9259,11 @@
       </c>
       <c r="C67" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="F67" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.8">
@@ -9295,19 +9295,19 @@
       </c>
       <c r="C68" s="4">
         <f t="shared" ref="C68:C102" ca="1" si="6">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" ref="D68:D102" ca="1" si="7">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" ref="E68:E102" ca="1" si="8">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" s="4">
         <f t="shared" ref="F68:F102" ca="1" si="9">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9315,11 +9315,11 @@
       </c>
       <c r="H68" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="13.8">
@@ -9331,23 +9331,23 @@
       </c>
       <c r="C69" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="13.8">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="C70" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9403,23 +9403,23 @@
       </c>
       <c r="C71" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="13.8">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="C72" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" ca="1" si="7"/>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="E72" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="4">
         <f t="shared" ca="1" si="9"/>
@@ -9455,15 +9455,15 @@
       </c>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.8">
@@ -9479,27 +9479,27 @@
       </c>
       <c r="D73" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13.8">
@@ -9515,27 +9515,27 @@
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13.8">
@@ -9547,23 +9547,23 @@
       </c>
       <c r="C75" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9583,27 +9583,27 @@
       </c>
       <c r="C76" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="5"/>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="C77" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" ca="1" si="7"/>
@@ -9627,23 +9627,23 @@
       </c>
       <c r="E77" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F77" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.8">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="C78" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9667,15 +9667,15 @@
       </c>
       <c r="F78" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="5"/>
@@ -9691,23 +9691,23 @@
       </c>
       <c r="C79" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9727,19 +9727,19 @@
       </c>
       <c r="C80" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9767,27 +9767,27 @@
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.8">
@@ -9799,19 +9799,19 @@
       </c>
       <c r="C82" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="H82" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="5"/>
@@ -9835,15 +9835,15 @@
       </c>
       <c r="C83" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="4">
         <f t="shared" ca="1" si="9"/>
@@ -9851,15 +9851,15 @@
       </c>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.8">
@@ -9871,31 +9871,31 @@
       </c>
       <c r="C84" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="13.8">
@@ -9907,19 +9907,19 @@
       </c>
       <c r="C85" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9927,11 +9927,11 @@
       </c>
       <c r="H85" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="13.8">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="C86" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9963,11 +9963,11 @@
       </c>
       <c r="H86" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="13.8">
@@ -9979,23 +9979,23 @@
       </c>
       <c r="C87" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.8">
@@ -10015,23 +10015,23 @@
       </c>
       <c r="C88" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -10051,31 +10051,31 @@
       </c>
       <c r="C89" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F89" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="13.8">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="C90" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="F90" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="13.8">
@@ -10123,23 +10123,23 @@
       </c>
       <c r="C91" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="13.8">
@@ -10159,19 +10159,19 @@
       </c>
       <c r="C92" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F92" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -10179,11 +10179,11 @@
       </c>
       <c r="H92" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="13.8">
@@ -10195,15 +10195,15 @@
       </c>
       <c r="C93" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E93" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" s="4">
         <f t="shared" ca="1" si="9"/>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="13.8">
@@ -10231,27 +10231,27 @@
       </c>
       <c r="C94" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G94" s="4">
         <f t="shared" ref="G94:I102" ca="1" si="10">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="10"/>
@@ -10271,19 +10271,19 @@
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E95" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="13.8">
@@ -10303,23 +10303,23 @@
       </c>
       <c r="C96" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10339,11 +10339,11 @@
       </c>
       <c r="C97" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="F97" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10359,11 +10359,11 @@
       </c>
       <c r="H97" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="13.8">
@@ -10375,31 +10375,31 @@
       </c>
       <c r="C98" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="13.8">
@@ -10411,31 +10411,31 @@
       </c>
       <c r="C99" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E99" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="13.8">
@@ -10447,27 +10447,27 @@
       </c>
       <c r="C100" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="10"/>
@@ -10483,15 +10483,15 @@
       </c>
       <c r="C101" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" s="4">
         <f t="shared" ca="1" si="9"/>
@@ -10503,11 +10503,11 @@
       </c>
       <c r="H101" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="13.8">
@@ -10519,19 +10519,19 @@
       </c>
       <c r="C102" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D102" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F102" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/web/xlsx/loaddata.xlsx
+++ b/web/xlsx/loaddata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senior\itReal\taffy\web\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03DCC78-40DF-44A2-BC75-0EAD307FD1AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B28EC70-0628-4937-A5F9-1BE26A54395A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="E3" s="12">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E9" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E10" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="E12" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E14" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E16" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E17" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25">
@@ -4747,7 +4747,7 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="E3" s="4">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">RANDBETWEEN(1,12)</f>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="G3" s="4">
         <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">RANDBETWEEN(1,2)</f>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
@@ -6993,15 +6993,15 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F67" ca="1" si="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:I29" ca="1" si="2">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="2"/>
@@ -7031,15 +7031,15 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25">
@@ -7057,19 +7057,19 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
@@ -7091,19 +7091,19 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
@@ -7125,11 +7125,11 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:C67" ca="1" si="3">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -7164,11 +7164,11 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7195,11 +7195,11 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7207,11 +7207,11 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7234,11 +7234,11 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7269,11 +7269,11 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7304,19 +7304,19 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25">
@@ -7328,18 +7328,18 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="H14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="2"/>
@@ -7370,11 +7370,11 @@
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7405,15 +7405,15 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7433,22 +7433,22 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7468,26 +7468,26 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
@@ -7503,30 +7503,30 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25">
@@ -7538,22 +7538,22 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
@@ -7608,26 +7608,26 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
@@ -7643,26 +7643,26 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
@@ -7678,11 +7678,11 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ref="D24:D67" ca="1" si="4">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7690,11 +7690,11 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25">
@@ -7750,23 +7750,23 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25">
@@ -7786,27 +7786,27 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="2"/>
@@ -7858,23 +7858,23 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25">
@@ -7894,19 +7894,19 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" ref="G30:I93" ca="1" si="5">RANDBETWEEN(1,2)</f>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -7938,23 +7938,23 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25">
@@ -7966,19 +7966,19 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -7986,11 +7986,11 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25">
@@ -8002,19 +8002,19 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="5"/>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8050,11 +8050,11 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25">
@@ -8074,11 +8074,11 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8086,15 +8086,15 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="5"/>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25">
@@ -8146,19 +8146,19 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8186,15 +8186,15 @@
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8202,11 +8202,11 @@
       </c>
       <c r="H38" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25">
@@ -8218,23 +8218,23 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8254,11 +8254,11 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="F40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="H40" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="5"/>
@@ -8290,31 +8290,31 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="F42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8346,11 +8346,11 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25">
@@ -8362,19 +8362,19 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25">
@@ -8398,11 +8398,11 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8410,19 +8410,19 @@
       </c>
       <c r="F44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25">
@@ -8434,19 +8434,19 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="5"/>
@@ -8470,11 +8470,11 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="F46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25">
@@ -8506,23 +8506,23 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8554,11 +8554,11 @@
       </c>
       <c r="F48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8578,23 +8578,23 @@
       </c>
       <c r="C49" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.25">
@@ -8614,31 +8614,31 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25">
@@ -8650,23 +8650,23 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25">
@@ -8686,19 +8686,19 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25">
@@ -8722,11 +8722,11 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8734,11 +8734,11 @@
       </c>
       <c r="F53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.25">
@@ -8758,11 +8758,11 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -8770,11 +8770,11 @@
       </c>
       <c r="F54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25">
@@ -8794,23 +8794,23 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8830,27 +8830,27 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="5"/>
@@ -8866,19 +8866,19 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8886,11 +8886,11 @@
       </c>
       <c r="H57" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25">
@@ -8902,19 +8902,19 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8942,15 +8942,15 @@
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="C60" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -8982,15 +8982,15 @@
       </c>
       <c r="E60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25">
@@ -9010,19 +9010,19 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="H61" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="5"/>
@@ -9046,11 +9046,11 @@
       </c>
       <c r="C62" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -9058,11 +9058,11 @@
       </c>
       <c r="F62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25">
@@ -9082,31 +9082,31 @@
       </c>
       <c r="C63" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25">
@@ -9118,15 +9118,15 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -9138,7 +9138,7 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="5"/>
@@ -9154,27 +9154,27 @@
       </c>
       <c r="C65" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="5"/>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="C66" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -9226,27 +9226,27 @@
       </c>
       <c r="C67" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="5"/>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="C68" s="4">
         <f t="shared" ref="C68:C102" ca="1" si="6">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" ref="D68:D102" ca="1" si="7">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" ref="E68:E102" ca="1" si="8">RANDBETWEEN(1,4)</f>
@@ -9274,15 +9274,15 @@
       </c>
       <c r="F68" s="4">
         <f t="shared" ref="F68:F102" ca="1" si="9">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="5"/>
@@ -9298,19 +9298,19 @@
       </c>
       <c r="C69" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25">
@@ -9334,11 +9334,11 @@
       </c>
       <c r="C70" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9346,15 +9346,15 @@
       </c>
       <c r="F70" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="5"/>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="F71" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25">
@@ -9406,23 +9406,23 @@
       </c>
       <c r="C72" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9442,11 +9442,11 @@
       </c>
       <c r="C73" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="F73" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25">
@@ -9478,7 +9478,7 @@
       </c>
       <c r="C74" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="7"/>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="E74" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74" s="4">
         <f t="shared" ca="1" si="9"/>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="H74" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="5"/>
@@ -9514,27 +9514,27 @@
       </c>
       <c r="C75" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="5"/>
@@ -9550,11 +9550,11 @@
       </c>
       <c r="C76" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="F76" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9570,11 +9570,11 @@
       </c>
       <c r="H76" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25">
@@ -9586,11 +9586,11 @@
       </c>
       <c r="C77" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9598,15 +9598,15 @@
       </c>
       <c r="F77" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="5"/>
@@ -9622,19 +9622,19 @@
       </c>
       <c r="C78" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="H78" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="5"/>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="C79" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="7"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="E79" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F79" s="4">
         <f t="shared" ca="1" si="9"/>
@@ -9674,11 +9674,11 @@
       </c>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="5"/>
@@ -9694,11 +9694,11 @@
       </c>
       <c r="C80" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9706,15 +9706,15 @@
       </c>
       <c r="F80" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="5"/>
@@ -9730,27 +9730,27 @@
       </c>
       <c r="C81" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="5"/>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="C82" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="7"/>
@@ -9774,11 +9774,11 @@
       </c>
       <c r="E82" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9786,11 +9786,11 @@
       </c>
       <c r="H82" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25">
@@ -9802,11 +9802,11 @@
       </c>
       <c r="C83" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9814,11 +9814,11 @@
       </c>
       <c r="F83" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25">
@@ -9838,11 +9838,11 @@
       </c>
       <c r="C84" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9850,15 +9850,15 @@
       </c>
       <c r="F84" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="5"/>
@@ -9874,15 +9874,15 @@
       </c>
       <c r="C85" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" s="4">
         <f t="shared" ca="1" si="9"/>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25">
@@ -9910,23 +9910,23 @@
       </c>
       <c r="C86" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F86" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25">
@@ -9950,15 +9950,15 @@
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -9966,11 +9966,11 @@
       </c>
       <c r="H87" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.25">
@@ -9982,11 +9982,11 @@
       </c>
       <c r="C88" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -9994,19 +9994,19 @@
       </c>
       <c r="F88" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25">
@@ -10018,31 +10018,31 @@
       </c>
       <c r="C89" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F89" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25">
@@ -10054,11 +10054,11 @@
       </c>
       <c r="C90" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="F90" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="H90" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="5"/>
@@ -10090,15 +10090,15 @@
       </c>
       <c r="C91" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" s="4">
         <f t="shared" ca="1" si="9"/>
@@ -10106,7 +10106,7 @@
       </c>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25">
@@ -10126,19 +10126,19 @@
       </c>
       <c r="C92" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="H92" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="5"/>
@@ -10162,23 +10162,23 @@
       </c>
       <c r="C93" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E93" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F93" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.25">
@@ -10198,19 +10198,19 @@
       </c>
       <c r="C94" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G94" s="4">
         <f t="shared" ref="G94:I102" ca="1" si="10">RANDBETWEEN(1,2)</f>
@@ -10218,7 +10218,7 @@
       </c>
       <c r="H94" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="10"/>
@@ -10234,27 +10234,27 @@
       </c>
       <c r="C95" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E95" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="10"/>
@@ -10270,11 +10270,11 @@
       </c>
       <c r="C96" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="F96" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10306,19 +10306,19 @@
       </c>
       <c r="C97" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10342,19 +10342,19 @@
       </c>
       <c r="C98" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10378,7 +10378,7 @@
       </c>
       <c r="C99" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="7"/>
@@ -10386,11 +10386,11 @@
       </c>
       <c r="E99" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10398,11 +10398,11 @@
       </c>
       <c r="H99" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.25">
@@ -10414,23 +10414,23 @@
       </c>
       <c r="C100" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10438,7 +10438,7 @@
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25">
@@ -10450,23 +10450,23 @@
       </c>
       <c r="C101" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10486,23 +10486,23 @@
       </c>
       <c r="C102" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D102" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" s="4">
         <f t="shared" ca="1" si="10"/>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/web/xlsx/loaddata.xlsx
+++ b/web/xlsx/loaddata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="568">
   <si>
     <t xml:space="preserve">BloodType</t>
   </si>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">Carleton</t>
   </si>
   <si>
-    <t xml:space="preserve">test_01</t>
+    <t xml:space="preserve">simu_Carleton</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com5</t>
@@ -297,7 +297,7 @@
     <t xml:space="preserve">Carmona</t>
   </si>
   <si>
-    <t xml:space="preserve">test_02</t>
+    <t xml:space="preserve">simu_Carmona</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com6</t>
@@ -312,7 +312,7 @@
     <t xml:space="preserve">Garza</t>
   </si>
   <si>
-    <t xml:space="preserve">test_03</t>
+    <t xml:space="preserve">simu_Garza</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com7</t>
@@ -327,7 +327,7 @@
     <t xml:space="preserve">Gonzalez Pirez</t>
   </si>
   <si>
-    <t xml:space="preserve">test_04</t>
+    <t xml:space="preserve">simu_Gonzalez Pirez</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com8</t>
@@ -342,7 +342,7 @@
     <t xml:space="preserve">Goslin</t>
   </si>
   <si>
-    <t xml:space="preserve">test_05</t>
+    <t xml:space="preserve">simu_Goslin</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com9</t>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">Gressel</t>
   </si>
   <si>
-    <t xml:space="preserve">test_06</t>
+    <t xml:space="preserve">simu_Gressel</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com10</t>
@@ -372,7 +372,7 @@
     <t xml:space="preserve">Heath</t>
   </si>
   <si>
-    <t xml:space="preserve">test_07</t>
+    <t xml:space="preserve">simu_Heath</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com11</t>
@@ -387,7 +387,7 @@
     <t xml:space="preserve">Jones</t>
   </si>
   <si>
-    <t xml:space="preserve">test_08</t>
+    <t xml:space="preserve">simu_Jones</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com12</t>
@@ -402,7 +402,7 @@
     <t xml:space="preserve">Kann</t>
   </si>
   <si>
-    <t xml:space="preserve">test_09</t>
+    <t xml:space="preserve">simu_Kann</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com13</t>
@@ -417,7 +417,7 @@
     <t xml:space="preserve">Kratz</t>
   </si>
   <si>
-    <t xml:space="preserve">test_10</t>
+    <t xml:space="preserve">simu_Kratz</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com14</t>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">Larentowicz</t>
   </si>
   <si>
-    <t xml:space="preserve">test_11</t>
+    <t xml:space="preserve">simu_Larentowicz</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com15</t>
@@ -447,7 +447,7 @@
     <t xml:space="preserve">Loyd</t>
   </si>
   <si>
-    <t xml:space="preserve">test_12</t>
+    <t xml:space="preserve">simu_Loyd</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com16</t>
@@ -456,10 +456,13 @@
     <t xml:space="preserve">bornborn138</t>
   </si>
   <si>
+    <t xml:space="preserve">Kai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Martinez</t>
   </si>
   <si>
-    <t xml:space="preserve">test_13</t>
+    <t xml:space="preserve">simu_Martinez</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com17</t>
@@ -474,7 +477,7 @@
     <t xml:space="preserve">McCann</t>
   </si>
   <si>
-    <t xml:space="preserve">test_14</t>
+    <t xml:space="preserve">simu_McCann</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com18</t>
@@ -489,7 +492,7 @@
     <t xml:space="preserve">Mears</t>
   </si>
   <si>
-    <t xml:space="preserve">test_15</t>
+    <t xml:space="preserve">simu_Mears</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com19</t>
@@ -504,7 +507,7 @@
     <t xml:space="preserve">Oblitey Otoo</t>
   </si>
   <si>
-    <t xml:space="preserve">test_16</t>
+    <t xml:space="preserve">simu_Oblitey Otoo</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com20</t>
@@ -519,7 +522,7 @@
     <t xml:space="preserve">Parkhurst</t>
   </si>
   <si>
-    <t xml:space="preserve">test_17</t>
+    <t xml:space="preserve">simu_Parkhurst</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com21</t>
@@ -528,10 +531,13 @@
     <t xml:space="preserve">bornborn143</t>
   </si>
   <si>
+    <t xml:space="preserve">Ara</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peterson</t>
   </si>
   <si>
-    <t xml:space="preserve">test_18</t>
+    <t xml:space="preserve">simu_Peterson</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com22</t>
@@ -546,7 +552,7 @@
     <t xml:space="preserve">Reynish</t>
   </si>
   <si>
-    <t xml:space="preserve">test_19</t>
+    <t xml:space="preserve">simu_Reynish</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com23</t>
@@ -561,7 +567,7 @@
     <t xml:space="preserve">Robinson</t>
   </si>
   <si>
-    <t xml:space="preserve">test_20</t>
+    <t xml:space="preserve">simu_Robinson</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com24</t>
@@ -576,7 +582,7 @@
     <t xml:space="preserve">Rochez</t>
   </si>
   <si>
-    <t xml:space="preserve">test_21</t>
+    <t xml:space="preserve">simu_Rochez</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com25</t>
@@ -591,7 +597,7 @@
     <t xml:space="preserve">Tambakis</t>
   </si>
   <si>
-    <t xml:space="preserve">test_22</t>
+    <t xml:space="preserve">simu_Tambakis</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com26</t>
@@ -600,10 +606,13 @@
     <t xml:space="preserve">bornborn148</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaipal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vazquez</t>
   </si>
   <si>
-    <t xml:space="preserve">test_23</t>
+    <t xml:space="preserve">simu_Vazquez</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com27</t>
@@ -618,7 +627,7 @@
     <t xml:space="preserve">Villalba</t>
   </si>
   <si>
-    <t xml:space="preserve">test_24</t>
+    <t xml:space="preserve">simu_Villalba</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com28</t>
@@ -633,7 +642,7 @@
     <t xml:space="preserve">Walkes</t>
   </si>
   <si>
-    <t xml:space="preserve">test_25</t>
+    <t xml:space="preserve">simu_Walkes</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com29</t>
@@ -648,7 +657,7 @@
     <t xml:space="preserve">Wheeler-Omiunu</t>
   </si>
   <si>
-    <t xml:space="preserve">test_26</t>
+    <t xml:space="preserve">simu_Wheeler-Omiunu</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com30</t>
@@ -663,7 +672,7 @@
     <t xml:space="preserve">Williams</t>
   </si>
   <si>
-    <t xml:space="preserve">test_27</t>
+    <t xml:space="preserve">simu_Williams</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com31</t>
@@ -678,7 +687,7 @@
     <t xml:space="preserve">Accam</t>
   </si>
   <si>
-    <t xml:space="preserve">test_28</t>
+    <t xml:space="preserve">simu_Accam</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com32</t>
@@ -693,7 +702,7 @@
     <t xml:space="preserve">Alvarez</t>
   </si>
   <si>
-    <t xml:space="preserve">test_29</t>
+    <t xml:space="preserve">simu_Alvarez</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com33</t>
@@ -708,7 +717,7 @@
     <t xml:space="preserve">Arshakyan</t>
   </si>
   <si>
-    <t xml:space="preserve">test_30</t>
+    <t xml:space="preserve">simu_Arshakyan</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com34</t>
@@ -723,7 +732,7 @@
     <t xml:space="preserve">Bronico</t>
   </si>
   <si>
-    <t xml:space="preserve">test_31</t>
+    <t xml:space="preserve">simu_Bronico</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com35</t>
@@ -732,10 +741,13 @@
     <t xml:space="preserve">bornborn157</t>
   </si>
   <si>
+    <t xml:space="preserve">Aya</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calistri</t>
   </si>
   <si>
-    <t xml:space="preserve">test_32</t>
+    <t xml:space="preserve">simu_Calistri</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com36</t>
@@ -750,7 +762,7 @@
     <t xml:space="preserve">Campbell</t>
   </si>
   <si>
-    <t xml:space="preserve">test_33</t>
+    <t xml:space="preserve">simu_Campbell</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com37</t>
@@ -765,7 +777,7 @@
     <t xml:space="preserve">Cleveland</t>
   </si>
   <si>
-    <t xml:space="preserve">test_34</t>
+    <t xml:space="preserve">simu_Cleveland</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com38</t>
@@ -780,7 +792,7 @@
     <t xml:space="preserve">Conner</t>
   </si>
   <si>
-    <t xml:space="preserve">test_35</t>
+    <t xml:space="preserve">simu_Conner</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com39</t>
@@ -792,7 +804,7 @@
     <t xml:space="preserve">De Leeuw</t>
   </si>
   <si>
-    <t xml:space="preserve">test_36</t>
+    <t xml:space="preserve">simu_De Leeuw</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com40</t>
@@ -807,7 +819,7 @@
     <t xml:space="preserve">Dekovic</t>
   </si>
   <si>
-    <t xml:space="preserve">test_37</t>
+    <t xml:space="preserve">simu_Dekovic</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com41</t>
@@ -822,7 +834,7 @@
     <t xml:space="preserve">Doody</t>
   </si>
   <si>
-    <t xml:space="preserve">test_38</t>
+    <t xml:space="preserve">simu_Doody</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com42</t>
@@ -837,7 +849,7 @@
     <t xml:space="preserve">Fernandez</t>
   </si>
   <si>
-    <t xml:space="preserve">test_39</t>
+    <t xml:space="preserve">simu_Fernandez</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com43</t>
@@ -852,7 +864,7 @@
     <t xml:space="preserve">Goossens</t>
   </si>
   <si>
-    <t xml:space="preserve">test_40</t>
+    <t xml:space="preserve">simu_Goossens</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com44</t>
@@ -867,7 +879,7 @@
     <t xml:space="preserve">Harrington</t>
   </si>
   <si>
-    <t xml:space="preserve">test_41</t>
+    <t xml:space="preserve">simu_Harrington</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com45</t>
@@ -882,7 +894,7 @@
     <t xml:space="preserve">Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">test_42</t>
+    <t xml:space="preserve">simu_Johnson</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com46</t>
@@ -894,7 +906,7 @@
     <t xml:space="preserve">Juninho</t>
   </si>
   <si>
-    <t xml:space="preserve">test_43</t>
+    <t xml:space="preserve">simu_Juninho</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com47</t>
@@ -909,7 +921,7 @@
     <t xml:space="preserve">Kappelhof</t>
   </si>
   <si>
-    <t xml:space="preserve">test_44</t>
+    <t xml:space="preserve">simu_Kappelhof</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com48</t>
@@ -924,7 +936,7 @@
     <t xml:space="preserve">Lampson</t>
   </si>
   <si>
-    <t xml:space="preserve">test_45</t>
+    <t xml:space="preserve">simu_Lampson</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com49</t>
@@ -939,7 +951,7 @@
     <t xml:space="preserve">McCarty</t>
   </si>
   <si>
-    <t xml:space="preserve">test_46</t>
+    <t xml:space="preserve">simu_McCarty</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com50</t>
@@ -954,7 +966,7 @@
     <t xml:space="preserve">Meira</t>
   </si>
   <si>
-    <t xml:space="preserve">test_47</t>
+    <t xml:space="preserve">simu_Meira</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com51</t>
@@ -969,7 +981,7 @@
     <t xml:space="preserve">Mihailovic</t>
   </si>
   <si>
-    <t xml:space="preserve">test_48</t>
+    <t xml:space="preserve">simu_Mihailovic</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com52</t>
@@ -981,7 +993,7 @@
     <t xml:space="preserve">Nikolic</t>
   </si>
   <si>
-    <t xml:space="preserve">test_49</t>
+    <t xml:space="preserve">simu_Nikolic</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com53</t>
@@ -996,7 +1008,7 @@
     <t xml:space="preserve">Polster</t>
   </si>
   <si>
-    <t xml:space="preserve">test_50</t>
+    <t xml:space="preserve">simu_Polster</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com54</t>
@@ -1011,7 +1023,7 @@
     <t xml:space="preserve">Rodrigo Bava</t>
   </si>
   <si>
-    <t xml:space="preserve">test_51</t>
+    <t xml:space="preserve">simu_Rodrigo Bava</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com55</t>
@@ -1023,7 +1035,7 @@
     <t xml:space="preserve">Schweinsteiger</t>
   </si>
   <si>
-    <t xml:space="preserve">test_52</t>
+    <t xml:space="preserve">simu_Schweinsteiger</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com56</t>
@@ -1038,7 +1050,7 @@
     <t xml:space="preserve">Solignac</t>
   </si>
   <si>
-    <t xml:space="preserve">test_53</t>
+    <t xml:space="preserve">simu_Solignac</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com57</t>
@@ -1053,7 +1065,7 @@
     <t xml:space="preserve">Vincent</t>
   </si>
   <si>
-    <t xml:space="preserve">test_54</t>
+    <t xml:space="preserve">simu_Vincent</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com58</t>
@@ -1068,7 +1080,7 @@
     <t xml:space="preserve">Abu</t>
   </si>
   <si>
-    <t xml:space="preserve">test_55</t>
+    <t xml:space="preserve">simu_Abu</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com59</t>
@@ -1083,7 +1095,7 @@
     <t xml:space="preserve">Abubakar</t>
   </si>
   <si>
-    <t xml:space="preserve">test_56</t>
+    <t xml:space="preserve">simu_Abubakar</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com60</t>
@@ -1098,7 +1110,7 @@
     <t xml:space="preserve">Afful</t>
   </si>
   <si>
-    <t xml:space="preserve">test_57</t>
+    <t xml:space="preserve">simu_Afful</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com61</t>
@@ -1110,7 +1122,7 @@
     <t xml:space="preserve">Crognale</t>
   </si>
   <si>
-    <t xml:space="preserve">test_58</t>
+    <t xml:space="preserve">simu_Crognale</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com62</t>
@@ -1125,7 +1137,7 @@
     <t xml:space="preserve">De Lima Junior</t>
   </si>
   <si>
-    <t xml:space="preserve">test_59</t>
+    <t xml:space="preserve">simu_De Lima Junior</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com63</t>
@@ -1140,7 +1152,7 @@
     <t xml:space="preserve">Duka</t>
   </si>
   <si>
-    <t xml:space="preserve">test_60</t>
+    <t xml:space="preserve">simu_Duka</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com64</t>
@@ -1155,7 +1167,7 @@
     <t xml:space="preserve">Finlay</t>
   </si>
   <si>
-    <t xml:space="preserve">test_61</t>
+    <t xml:space="preserve">simu_Finlay</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com65</t>
@@ -1167,7 +1179,7 @@
     <t xml:space="preserve">Francis</t>
   </si>
   <si>
-    <t xml:space="preserve">test_62</t>
+    <t xml:space="preserve">simu_Francis</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com66</t>
@@ -1182,7 +1194,7 @@
     <t xml:space="preserve">Hansen</t>
   </si>
   <si>
-    <t xml:space="preserve">test_63</t>
+    <t xml:space="preserve">simu_Hansen</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com67</t>
@@ -1197,7 +1209,7 @@
     <t xml:space="preserve">Higuain</t>
   </si>
   <si>
-    <t xml:space="preserve">test_64</t>
+    <t xml:space="preserve">simu_Higuain</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com68</t>
@@ -1209,7 +1221,7 @@
     <t xml:space="preserve">Hollingsworth</t>
   </si>
   <si>
-    <t xml:space="preserve">test_65</t>
+    <t xml:space="preserve">simu_Hollingsworth</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com69</t>
@@ -1224,7 +1236,7 @@
     <t xml:space="preserve">Jahn</t>
   </si>
   <si>
-    <t xml:space="preserve">test_66</t>
+    <t xml:space="preserve">simu_Jahn</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com70</t>
@@ -1239,7 +1251,7 @@
     <t xml:space="preserve">Jimenez</t>
   </si>
   <si>
-    <t xml:space="preserve">test_67</t>
+    <t xml:space="preserve">simu_Jimenez</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com71</t>
@@ -1254,7 +1266,7 @@
     <t xml:space="preserve">Kamara</t>
   </si>
   <si>
-    <t xml:space="preserve">test_68</t>
+    <t xml:space="preserve">simu_Kamara</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com72</t>
@@ -1269,7 +1281,7 @@
     <t xml:space="preserve">Ketterer</t>
   </si>
   <si>
-    <t xml:space="preserve">test_69</t>
+    <t xml:space="preserve">simu_Ketterer</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com73</t>
@@ -1281,7 +1293,7 @@
     <t xml:space="preserve">Maloney</t>
   </si>
   <si>
-    <t xml:space="preserve">test_70</t>
+    <t xml:space="preserve">simu_Maloney</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com74</t>
@@ -1296,7 +1308,7 @@
     <t xml:space="preserve">Manneh</t>
   </si>
   <si>
-    <t xml:space="preserve">test_71</t>
+    <t xml:space="preserve">simu_Manneh</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com75</t>
@@ -1305,7 +1317,25 @@
     <t xml:space="preserve">bornborn197</t>
   </si>
   <si>
-    <t xml:space="preserve">test_72</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">simu_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Robert</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com76</t>
@@ -1320,7 +1350,7 @@
     <t xml:space="preserve">Mensah</t>
   </si>
   <si>
-    <t xml:space="preserve">test_73</t>
+    <t xml:space="preserve">simu_Mensah</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com77</t>
@@ -1335,7 +1365,7 @@
     <t xml:space="preserve">Meram</t>
   </si>
   <si>
-    <t xml:space="preserve">test_74</t>
+    <t xml:space="preserve">simu_Meram</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com78</t>
@@ -1350,7 +1380,7 @@
     <t xml:space="preserve">Naess</t>
   </si>
   <si>
-    <t xml:space="preserve">test_75</t>
+    <t xml:space="preserve">simu_Naess</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com79</t>
@@ -1365,7 +1395,7 @@
     <t xml:space="preserve">Obinwa</t>
   </si>
   <si>
-    <t xml:space="preserve">test_76</t>
+    <t xml:space="preserve">simu_Obinwa</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com80</t>
@@ -1380,7 +1410,7 @@
     <t xml:space="preserve">Raitala</t>
   </si>
   <si>
-    <t xml:space="preserve">test_77</t>
+    <t xml:space="preserve">simu_Raitala</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com81</t>
@@ -1395,7 +1425,7 @@
     <t xml:space="preserve">Saravia</t>
   </si>
   <si>
-    <t xml:space="preserve">test_78</t>
+    <t xml:space="preserve">simu_Saravia</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com82</t>
@@ -1410,7 +1440,7 @@
     <t xml:space="preserve">Sauro</t>
   </si>
   <si>
-    <t xml:space="preserve">test_79</t>
+    <t xml:space="preserve">simu_Sauro</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com83</t>
@@ -1425,7 +1455,7 @@
     <t xml:space="preserve">Steffen</t>
   </si>
   <si>
-    <t xml:space="preserve">test_80</t>
+    <t xml:space="preserve">simu_Steffen</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com84</t>
@@ -1440,7 +1470,7 @@
     <t xml:space="preserve">Stuver</t>
   </si>
   <si>
-    <t xml:space="preserve">test_81</t>
+    <t xml:space="preserve">simu_Stuver</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com85</t>
@@ -1455,7 +1485,7 @@
     <t xml:space="preserve">Swanson</t>
   </si>
   <si>
-    <t xml:space="preserve">test_82</t>
+    <t xml:space="preserve">simu_Swanson</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com86</t>
@@ -1470,7 +1500,7 @@
     <t xml:space="preserve">Trapp</t>
   </si>
   <si>
-    <t xml:space="preserve">test_83</t>
+    <t xml:space="preserve">simu_Trapp</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com87</t>
@@ -1482,7 +1512,25 @@
     <t xml:space="preserve">Rin</t>
   </si>
   <si>
-    <t xml:space="preserve">test_84</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">simu_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Rin</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com88</t>
@@ -1497,7 +1545,7 @@
     <t xml:space="preserve">Adjei-Boateng</t>
   </si>
   <si>
-    <t xml:space="preserve">test_85</t>
+    <t xml:space="preserve">simu_Adjei-Boateng</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com89</t>
@@ -1512,7 +1560,7 @@
     <t xml:space="preserve">Azira</t>
   </si>
   <si>
-    <t xml:space="preserve">test_86</t>
+    <t xml:space="preserve">simu_Azira</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com90</t>
@@ -1527,7 +1575,7 @@
     <t xml:space="preserve">Badji</t>
   </si>
   <si>
-    <t xml:space="preserve">test_87</t>
+    <t xml:space="preserve">simu_Badji</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com91</t>
@@ -1542,7 +1590,7 @@
     <t xml:space="preserve">Berner</t>
   </si>
   <si>
-    <t xml:space="preserve">test_88</t>
+    <t xml:space="preserve">simu_Berner</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com92</t>
@@ -1557,7 +1605,7 @@
     <t xml:space="preserve">Burling</t>
   </si>
   <si>
-    <t xml:space="preserve">test_89</t>
+    <t xml:space="preserve">simu_Burling</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com93</t>
@@ -1572,7 +1620,7 @@
     <t xml:space="preserve">Calvert</t>
   </si>
   <si>
-    <t xml:space="preserve">test_90</t>
+    <t xml:space="preserve">simu_Calvert</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com94</t>
@@ -1584,7 +1632,7 @@
     <t xml:space="preserve">Castillo</t>
   </si>
   <si>
-    <t xml:space="preserve">test_91</t>
+    <t xml:space="preserve">simu_Castillo</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com95</t>
@@ -1599,7 +1647,7 @@
     <t xml:space="preserve">Da Fonte</t>
   </si>
   <si>
-    <t xml:space="preserve">test_92</t>
+    <t xml:space="preserve">simu_Da Fonte</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com96</t>
@@ -1611,7 +1659,7 @@
     <t xml:space="preserve">Doyle</t>
   </si>
   <si>
-    <t xml:space="preserve">test_93</t>
+    <t xml:space="preserve">simu_Doyle</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com97</t>
@@ -1623,7 +1671,7 @@
     <t xml:space="preserve">Ford</t>
   </si>
   <si>
-    <t xml:space="preserve">test_94</t>
+    <t xml:space="preserve">simu_Ford</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com98</t>
@@ -1635,7 +1683,7 @@
     <t xml:space="preserve">Gashi</t>
   </si>
   <si>
-    <t xml:space="preserve">test_95</t>
+    <t xml:space="preserve">simu_Gashi</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com99</t>
@@ -1650,7 +1698,7 @@
     <t xml:space="preserve">Gatt</t>
   </si>
   <si>
-    <t xml:space="preserve">test_96</t>
+    <t xml:space="preserve">simu_Gatt</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com100</t>
@@ -2568,7 +2616,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2652,6 +2700,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2812,7 +2866,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2873,6 +2927,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2885,19 +2943,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2905,7 +2963,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2990,14 +3048,14 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="7:7 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.86"/>
   </cols>
@@ -3070,13 +3128,13 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="7:7 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,30 +3142,30 @@
         <f aca="false">MAX(A3:A7)</f>
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>543</v>
+      <c r="B1" s="18" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>545</v>
+      <c r="B2" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="n">
+      <c r="B3" s="21" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3115,11 +3173,11 @@
       <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="21" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3127,11 +3185,11 @@
       <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="n">
+      <c r="B5" s="21" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3139,11 +3197,11 @@
       <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="n">
+      <c r="B6" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3151,103 +3209,103 @@
       <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="n">
+      <c r="B7" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="J17" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="J18" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="J19" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="J20" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
+      <c r="J21" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
+      <c r="J22" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3268,14 +3326,14 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="7:7 F21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.86"/>
   </cols>
@@ -3285,28 +3343,28 @@
         <f aca="false">MAX(A3:A7)</f>
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,16 +3374,16 @@
       <c r="B3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="D3" s="20" t="n">
+      <c r="C3" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3" s="21" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,16 +3393,16 @@
       <c r="B4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="D4" s="20" t="n">
+      <c r="C4" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="D4" s="21" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,14 +3412,14 @@
       <c r="B5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="D5" s="20" t="n">
+      <c r="C5" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="D5" s="21" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
         <v>0</v>
       </c>
@@ -3373,16 +3431,16 @@
       <c r="B6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="D6" s="20" t="n">
+      <c r="C6" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="D6" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,16 +3450,16 @@
       <c r="B7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D7" s="20" t="n">
+      <c r="C7" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,16 +3469,16 @@
       <c r="B8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D8" s="20" t="n">
+      <c r="C8" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,16 +3488,16 @@
       <c r="B9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D9" s="20" t="n">
+      <c r="C9" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D9" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,16 +3507,16 @@
       <c r="B10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D10" s="20" t="n">
+      <c r="C10" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D10" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,16 +3526,16 @@
       <c r="B11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D11" s="20" t="n">
+      <c r="C11" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D11" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E11" s="20" t="n">
+      <c r="E11" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,16 +3545,16 @@
       <c r="B12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D12" s="20" t="n">
+      <c r="C12" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D12" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,16 +3564,16 @@
       <c r="B13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D13" s="20" t="n">
+      <c r="C13" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D13" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E13" s="20" t="n">
+      <c r="E13" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,16 +3583,16 @@
       <c r="B14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D14" s="20" t="n">
+      <c r="C14" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D14" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="E14" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,16 +3602,16 @@
       <c r="B15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D15" s="20" t="n">
+      <c r="C15" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E15" s="20" t="n">
+      <c r="E15" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,16 +3621,16 @@
       <c r="B16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D16" s="20" t="n">
+      <c r="C16" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D16" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E16" s="20" t="n">
+      <c r="E16" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,23 +3640,23 @@
       <c r="B17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D17" s="20" t="n">
+      <c r="C17" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D17" s="21" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E17" s="20" t="n">
+      <c r="E17" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3622,14 +3680,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="7:7 G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.86"/>
   </cols>
@@ -3639,8 +3697,8 @@
         <f aca="false">MAX(A3:A7)</f>
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>561</v>
+      <c r="B1" s="18" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3648,10 +3706,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>563</v>
+        <v>566</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,14 +3951,14 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="7:7 E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.86"/>
   </cols>
@@ -4000,14 +4058,14 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="7:7 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.86"/>
   </cols>
@@ -4144,14 +4202,14 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="7:7 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.86"/>
   </cols>
@@ -4288,10 +4346,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="7:7 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4367,10 +4425,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="7:7 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4446,10 +4504,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="7:7 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
   </cols>
@@ -4506,17 +4564,17 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+      <selection pane="topLeft" activeCell="D95" activeCellId="0" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="43.42"/>
   </cols>
   <sheetData>
@@ -4615,7 +4673,7 @@
         <v>70</v>
       </c>
       <c r="G4" s="14" t="n">
-        <v>35952</v>
+        <v>36074</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>2</v>
@@ -4715,7 +4773,7 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>65</v>
@@ -4744,11 +4802,11 @@
         <v>90</v>
       </c>
       <c r="G8" s="13" t="n">
-        <v>37414</v>
+        <v>37294</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>65</v>
@@ -4781,7 +4839,7 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>65</v>
@@ -4810,7 +4868,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="13" t="n">
-        <v>37416</v>
+        <v>37324</v>
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -4843,11 +4901,11 @@
         <v>105</v>
       </c>
       <c r="G11" s="13" t="n">
-        <v>37417</v>
+        <v>37266</v>
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>64</v>
@@ -4876,11 +4934,11 @@
         <v>110</v>
       </c>
       <c r="G12" s="13" t="n">
-        <v>37418</v>
+        <v>37267</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>64</v>
@@ -4909,7 +4967,7 @@
         <v>115</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>37419</v>
+        <v>37268</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -4942,7 +5000,7 @@
         <v>120</v>
       </c>
       <c r="G14" s="13" t="n">
-        <v>37420</v>
+        <v>37269</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -4975,11 +5033,11 @@
         <v>125</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>36691</v>
+        <v>37270</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>64</v>
@@ -5008,11 +5066,11 @@
         <v>130</v>
       </c>
       <c r="G16" s="13" t="n">
-        <v>36692</v>
+        <v>37271</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>64</v>
@@ -5041,11 +5099,11 @@
         <v>135</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>36693</v>
+        <v>36572</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>64</v>
@@ -5074,11 +5132,11 @@
         <v>140</v>
       </c>
       <c r="G18" s="13" t="n">
-        <v>36694</v>
+        <v>36573</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>64</v>
@@ -5092,26 +5150,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G19" s="13" t="n">
-        <v>36695</v>
+        <v>36574</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>64</v>
@@ -5125,26 +5183,26 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G20" s="13" t="n">
-        <v>36696</v>
+        <v>36575</v>
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>64</v>
@@ -5158,26 +5216,26 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G21" s="13" t="n">
-        <v>36697</v>
+        <v>36576</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>64</v>
@@ -5191,26 +5249,26 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G22" s="13" t="n">
-        <v>36698</v>
+        <v>36577</v>
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>64</v>
@@ -5224,26 +5282,26 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G23" s="13" t="n">
-        <v>36699</v>
+        <v>36578</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>64</v>
@@ -5257,26 +5315,26 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>36700</v>
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>64</v>
@@ -5290,26 +5348,26 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>36701</v>
+        <v>36609</v>
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>64</v>
@@ -5323,22 +5381,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="13" t="n">
-        <v>36702</v>
+        <v>36610</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -5356,22 +5414,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G27" s="13" t="n">
-        <v>35972</v>
+        <v>36611</v>
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -5389,26 +5447,26 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G28" s="13" t="n">
-        <v>33416</v>
+        <v>36612</v>
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>64</v>
@@ -5422,26 +5480,26 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G29" s="13" t="n">
-        <v>33417</v>
+        <v>36613</v>
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>64</v>
@@ -5455,26 +5513,26 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G30" s="13" t="n">
-        <v>33418</v>
+        <v>36614</v>
       </c>
       <c r="H30" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>64</v>
@@ -5488,26 +5546,26 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G31" s="13" t="n">
-        <v>33419</v>
+        <v>33388</v>
       </c>
       <c r="H31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>64</v>
@@ -5521,26 +5579,26 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G32" s="13" t="n">
-        <v>33420</v>
+        <v>33389</v>
       </c>
       <c r="H32" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>65</v>
@@ -5554,22 +5612,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>33421</v>
+        <v>33390</v>
       </c>
       <c r="H33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -5587,22 +5645,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G34" s="13" t="n">
-        <v>33422</v>
+        <v>33391</v>
       </c>
       <c r="H34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -5620,26 +5678,26 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G35" s="13" t="n">
-        <v>33423</v>
+        <v>33576</v>
       </c>
       <c r="H35" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>65</v>
@@ -5653,26 +5711,26 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G36" s="13" t="n">
-        <v>33424</v>
+        <v>33577</v>
       </c>
       <c r="H36" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>64</v>
@@ -5686,26 +5744,26 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G37" s="13" t="n">
-        <v>33425</v>
+        <v>33578</v>
       </c>
       <c r="H37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>64</v>
@@ -5719,26 +5777,26 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G38" s="13" t="n">
-        <v>33426</v>
+        <v>33579</v>
       </c>
       <c r="H38" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>64</v>
@@ -5752,26 +5810,26 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>33062</v>
+        <v>33185</v>
       </c>
       <c r="H39" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>64</v>
@@ -5785,26 +5843,26 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G40" s="13" t="n">
-        <v>33063</v>
+        <v>33186</v>
       </c>
       <c r="H40" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>65</v>
@@ -5818,26 +5876,26 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G41" s="13" t="n">
-        <v>33064</v>
+        <v>33187</v>
       </c>
       <c r="H41" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>65</v>
@@ -5851,26 +5909,26 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G42" s="13" t="n">
-        <v>33065</v>
+        <v>33004</v>
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>65</v>
@@ -5884,26 +5942,26 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G43" s="13" t="n">
-        <v>33066</v>
+        <v>33005</v>
       </c>
       <c r="H43" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>65</v>
@@ -5917,26 +5975,26 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G44" s="13" t="n">
-        <v>33067</v>
+        <v>33006</v>
       </c>
       <c r="H44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>64</v>
@@ -5950,26 +6008,26 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G45" s="13" t="n">
-        <v>33068</v>
+        <v>33007</v>
       </c>
       <c r="H45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>64</v>
@@ -5983,22 +6041,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G46" s="13" t="n">
-        <v>33069</v>
+        <v>33008</v>
       </c>
       <c r="H46" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -6016,26 +6074,26 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G47" s="13" t="n">
-        <v>33070</v>
+        <v>32979</v>
       </c>
       <c r="H47" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>64</v>
@@ -6049,26 +6107,26 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G48" s="13" t="n">
-        <v>33071</v>
+        <v>32980</v>
       </c>
       <c r="H48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>65</v>
@@ -6082,26 +6140,26 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G49" s="13" t="n">
-        <v>33072</v>
+        <v>32981</v>
       </c>
       <c r="H49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>65</v>
@@ -6115,26 +6173,26 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G50" s="13" t="n">
-        <v>35630</v>
+        <v>32982</v>
       </c>
       <c r="H50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>65</v>
@@ -6148,22 +6206,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G51" s="13" t="n">
-        <v>35631</v>
+        <v>32983</v>
       </c>
       <c r="H51" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -6181,26 +6239,26 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G52" s="13" t="n">
-        <v>35632</v>
+        <v>35602</v>
       </c>
       <c r="H52" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>65</v>
@@ -6214,26 +6272,26 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G53" s="13" t="n">
-        <v>35633</v>
+        <v>35603</v>
       </c>
       <c r="H53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>64</v>
@@ -6247,26 +6305,26 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G54" s="13" t="n">
-        <v>35634</v>
+        <v>35604</v>
       </c>
       <c r="H54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>64</v>
@@ -6280,26 +6338,26 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G55" s="13" t="n">
-        <v>35635</v>
+        <v>35605</v>
       </c>
       <c r="H55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>64</v>
@@ -6313,26 +6371,26 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G56" s="13" t="n">
-        <v>35636</v>
+        <v>35606</v>
       </c>
       <c r="H56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>64</v>
@@ -6346,22 +6404,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G57" s="13" t="n">
-        <v>35637</v>
+        <v>35699</v>
       </c>
       <c r="H57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -6379,22 +6437,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G58" s="13" t="n">
-        <v>35638</v>
+        <v>35700</v>
       </c>
       <c r="H58" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -6412,26 +6470,26 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G59" s="13" t="n">
-        <v>35639</v>
+        <v>35701</v>
       </c>
       <c r="H59" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>65</v>
@@ -6445,26 +6503,26 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G60" s="13" t="n">
-        <v>35640</v>
+        <v>35702</v>
       </c>
       <c r="H60" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>65</v>
@@ -6478,19 +6536,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>35641</v>
@@ -6511,26 +6569,26 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>35642</v>
       </c>
       <c r="H62" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>65</v>
@@ -6544,22 +6602,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G63" s="13" t="n">
-        <v>35643</v>
+        <v>35490</v>
       </c>
       <c r="H63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -6577,26 +6635,26 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G64" s="13" t="n">
-        <v>34183</v>
+        <v>35491</v>
       </c>
       <c r="H64" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>64</v>
@@ -6610,26 +6668,26 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G65" s="13" t="n">
-        <v>34184</v>
+        <v>35492</v>
       </c>
       <c r="H65" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>64</v>
@@ -6643,26 +6701,26 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G66" s="13" t="n">
-        <v>34185</v>
+        <v>35493</v>
       </c>
       <c r="H66" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>64</v>
@@ -6676,22 +6734,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G67" s="13" t="n">
-        <v>34186</v>
+        <v>33974</v>
       </c>
       <c r="H67" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -6709,26 +6767,26 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G68" s="13" t="n">
-        <v>34187</v>
+        <v>33975</v>
       </c>
       <c r="H68" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>65</v>
@@ -6742,26 +6800,26 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G69" s="13" t="n">
-        <v>34188</v>
+        <v>33976</v>
       </c>
       <c r="H69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>65</v>
@@ -6775,26 +6833,26 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G70" s="13" t="n">
-        <v>34189</v>
+        <v>33977</v>
       </c>
       <c r="H70" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>65</v>
@@ -6808,26 +6866,26 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G71" s="13" t="n">
-        <v>34190</v>
+        <v>33978</v>
       </c>
       <c r="H71" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>65</v>
@@ -6841,26 +6899,26 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G72" s="13" t="n">
-        <v>34191</v>
+        <v>34160</v>
       </c>
       <c r="H72" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>64</v>
@@ -6874,26 +6932,26 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G73" s="13" t="n">
-        <v>34192</v>
+        <v>34161</v>
       </c>
       <c r="H73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>64</v>
@@ -6907,26 +6965,26 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G74" s="13" t="n">
-        <v>34193</v>
+        <v>34162</v>
       </c>
       <c r="H74" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>64</v>
@@ -6940,26 +6998,26 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G75" s="13" t="n">
-        <v>34924</v>
+        <v>34163</v>
       </c>
       <c r="H75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>64</v>
@@ -6976,23 +7034,23 @@
         <v>101</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G76" s="13" t="n">
-        <v>34925</v>
+        <v>34164</v>
       </c>
       <c r="H76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>65</v>
@@ -7006,26 +7064,26 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G77" s="13" t="n">
-        <v>34926</v>
+        <v>34165</v>
       </c>
       <c r="H77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>65</v>
@@ -7039,22 +7097,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G78" s="13" t="n">
-        <v>34927</v>
+        <v>34988</v>
       </c>
       <c r="H78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -7072,26 +7130,26 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G79" s="13" t="n">
-        <v>34928</v>
+        <v>34989</v>
       </c>
       <c r="H79" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>65</v>
@@ -7105,26 +7163,26 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G80" s="13" t="n">
-        <v>34929</v>
+        <v>34990</v>
       </c>
       <c r="H80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>65</v>
@@ -7138,26 +7196,26 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G81" s="13" t="n">
-        <v>34930</v>
+        <v>34991</v>
       </c>
       <c r="H81" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>65</v>
@@ -7171,26 +7229,26 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G82" s="13" t="n">
-        <v>34931</v>
+        <v>34992</v>
       </c>
       <c r="H82" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>65</v>
@@ -7204,26 +7262,26 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G83" s="13" t="n">
-        <v>34932</v>
+        <v>34993</v>
       </c>
       <c r="H83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>65</v>
@@ -7237,26 +7295,26 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G84" s="13" t="n">
-        <v>34933</v>
+        <v>34994</v>
       </c>
       <c r="H84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" s="11" t="s">
         <v>65</v>
@@ -7270,26 +7328,26 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G85" s="13" t="n">
-        <v>34934</v>
+        <v>35026</v>
       </c>
       <c r="H85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>65</v>
@@ -7303,26 +7361,26 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G86" s="13" t="n">
-        <v>34935</v>
+        <v>35027</v>
       </c>
       <c r="H86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>65</v>
@@ -7336,26 +7394,26 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G87" s="13" t="n">
-        <v>38224</v>
+        <v>35028</v>
       </c>
       <c r="H87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I87" s="11" t="s">
         <v>65</v>
@@ -7369,26 +7427,26 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G88" s="13" t="n">
-        <v>38225</v>
+        <v>35029</v>
       </c>
       <c r="H88" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>65</v>
@@ -7402,26 +7460,26 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G89" s="13" t="n">
-        <v>38226</v>
+        <v>35030</v>
       </c>
       <c r="H89" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>65</v>
@@ -7435,26 +7493,26 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G90" s="13" t="n">
-        <v>38227</v>
+        <v>38349</v>
       </c>
       <c r="H90" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>65</v>
@@ -7468,22 +7526,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G91" s="13" t="n">
-        <v>30192</v>
+        <v>38350</v>
       </c>
       <c r="H91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -7501,22 +7559,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G92" s="13" t="n">
-        <v>30193</v>
+        <v>38351</v>
       </c>
       <c r="H92" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -7534,22 +7592,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G93" s="13" t="n">
-        <v>30194</v>
+        <v>38352</v>
       </c>
       <c r="H93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -7567,22 +7625,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G94" s="13" t="n">
-        <v>30195</v>
+        <v>38353</v>
       </c>
       <c r="H94" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -7600,26 +7658,26 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G95" s="13" t="n">
-        <v>30196</v>
+        <v>30165</v>
       </c>
       <c r="H95" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>65</v>
@@ -7633,26 +7691,26 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G96" s="13" t="n">
-        <v>31293</v>
+        <v>30166</v>
       </c>
       <c r="H96" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>65</v>
@@ -7666,26 +7724,26 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>31294</v>
       </c>
       <c r="H97" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>65</v>
@@ -7699,26 +7757,26 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>31295</v>
       </c>
       <c r="H98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>65</v>
@@ -7732,26 +7790,26 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>31296</v>
       </c>
       <c r="H99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>65</v>
@@ -7765,26 +7823,26 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>31297</v>
       </c>
       <c r="H100" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>65</v>
@@ -7798,19 +7856,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>31298</v>
@@ -7831,26 +7889,26 @@
         <v>101</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>31299</v>
       </c>
       <c r="H102" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I102" s="0" t="s">
         <v>64</v>
@@ -7986,10 +8044,10 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="7:7 J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.57"/>
@@ -8020,9 +8078,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -8040,7 +8098,7 @@
       <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8059,11 +8117,11 @@
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8075,7 +8133,7 @@
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8093,11 +8151,11 @@
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8105,7 +8163,7 @@
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8127,11 +8185,11 @@
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8161,11 +8219,11 @@
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8177,7 +8235,7 @@
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8195,15 +8253,15 @@
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8211,7 +8269,7 @@
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8229,23 +8287,23 @@
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,22 +8315,22 @@
       </c>
       <c r="C9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
       <c r="F9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8292,18 +8350,18 @@
       </c>
       <c r="C10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8311,11 +8369,11 @@
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8327,22 +8385,22 @@
       </c>
       <c r="C11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8362,14 +8420,14 @@
       </c>
       <c r="C12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8397,26 +8455,26 @@
       </c>
       <c r="C13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8439,7 +8497,7 @@
       </c>
       <c r="E14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8447,7 +8505,7 @@
       </c>
       <c r="G14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8474,11 +8532,11 @@
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8486,11 +8544,11 @@
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8502,14 +8560,14 @@
       </c>
       <c r="C16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8525,7 +8583,7 @@
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8544,11 +8602,11 @@
       </c>
       <c r="E17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8560,7 +8618,7 @@
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8583,7 +8641,7 @@
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8595,7 +8653,7 @@
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8614,19 +8672,19 @@
       </c>
       <c r="E19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8642,7 +8700,7 @@
       </c>
       <c r="C20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
@@ -8657,7 +8715,7 @@
       </c>
       <c r="G20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8677,30 +8735,30 @@
       </c>
       <c r="C21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
       <c r="G21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8719,7 +8777,7 @@
       </c>
       <c r="E22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8754,11 +8812,11 @@
       </c>
       <c r="E23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8770,7 +8828,7 @@
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8782,11 +8840,11 @@
       </c>
       <c r="C24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -8794,7 +8852,7 @@
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8806,7 +8864,7 @@
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8818,19 +8876,19 @@
       </c>
       <c r="C25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8838,11 +8896,11 @@
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8854,7 +8912,7 @@
       </c>
       <c r="C26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8866,7 +8924,7 @@
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8874,7 +8932,7 @@
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8890,11 +8948,11 @@
       </c>
       <c r="C27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -8902,19 +8960,19 @@
       </c>
       <c r="F27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8930,27 +8988,27 @@
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8962,19 +9020,19 @@
       </c>
       <c r="C29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8986,7 +9044,7 @@
       </c>
       <c r="I29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8998,19 +9056,19 @@
       </c>
       <c r="C30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9018,7 +9076,7 @@
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9034,31 +9092,31 @@
       </c>
       <c r="C31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9070,11 +9128,11 @@
       </c>
       <c r="C32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9082,7 +9140,7 @@
       </c>
       <c r="F32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9106,11 +9164,11 @@
       </c>
       <c r="C33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9118,7 +9176,7 @@
       </c>
       <c r="F33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9130,7 +9188,7 @@
       </c>
       <c r="I33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9142,7 +9200,7 @@
       </c>
       <c r="C34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9150,15 +9208,15 @@
       </c>
       <c r="E34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9166,7 +9224,7 @@
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,27 +9236,27 @@
       </c>
       <c r="C35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="F35" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
-      </c>
       <c r="G35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9214,19 +9272,19 @@
       </c>
       <c r="C36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9250,31 +9308,31 @@
       </c>
       <c r="C37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9286,23 +9344,23 @@
       </c>
       <c r="C38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>4</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-      <c r="F38" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
       <c r="G38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9322,23 +9380,23 @@
       </c>
       <c r="C39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9346,7 +9404,7 @@
       </c>
       <c r="I39" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9358,23 +9416,23 @@
       </c>
       <c r="C40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9394,19 +9452,19 @@
       </c>
       <c r="C41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9418,7 +9476,7 @@
       </c>
       <c r="I41" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9434,11 +9492,11 @@
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9466,11 +9524,11 @@
       </c>
       <c r="C43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9478,7 +9536,7 @@
       </c>
       <c r="F43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9486,11 +9544,11 @@
       </c>
       <c r="H43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9502,19 +9560,19 @@
       </c>
       <c r="C44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9522,7 +9580,7 @@
       </c>
       <c r="H44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9538,19 +9596,19 @@
       </c>
       <c r="C45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="D45" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
       <c r="E45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9558,7 +9616,7 @@
       </c>
       <c r="H45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9574,19 +9632,19 @@
       </c>
       <c r="C46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9610,31 +9668,31 @@
       </c>
       <c r="C47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F47" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
-      </c>
       <c r="G47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9650,7 +9708,7 @@
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9658,11 +9716,11 @@
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9670,7 +9728,7 @@
       </c>
       <c r="I48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9682,31 +9740,31 @@
       </c>
       <c r="C49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9718,20 +9776,20 @@
       </c>
       <c r="C50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>7</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="F50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
         <v>5</v>
       </c>
-      <c r="E50" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F50" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
       <c r="G50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
@@ -9742,7 +9800,7 @@
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9754,31 +9812,31 @@
       </c>
       <c r="C51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9790,19 +9848,19 @@
       </c>
       <c r="C52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9814,7 +9872,7 @@
       </c>
       <c r="I52" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9826,19 +9884,19 @@
       </c>
       <c r="C53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9846,11 +9904,11 @@
       </c>
       <c r="H53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9862,19 +9920,19 @@
       </c>
       <c r="C54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9886,7 +9944,7 @@
       </c>
       <c r="I54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9898,19 +9956,19 @@
       </c>
       <c r="C55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9918,11 +9976,11 @@
       </c>
       <c r="H55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9938,7 +9996,7 @@
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9946,7 +10004,7 @@
       </c>
       <c r="F56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9954,7 +10012,7 @@
       </c>
       <c r="H56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9974,7 +10032,7 @@
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9982,19 +10040,19 @@
       </c>
       <c r="F57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10006,23 +10064,23 @@
       </c>
       <c r="C58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>12</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D58" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F58" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
       <c r="G58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10030,7 +10088,7 @@
       </c>
       <c r="I58" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10042,19 +10100,19 @@
       </c>
       <c r="C59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10062,11 +10120,11 @@
       </c>
       <c r="H59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10078,19 +10136,19 @@
       </c>
       <c r="C60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10102,7 +10160,7 @@
       </c>
       <c r="I60" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10118,11 +10176,11 @@
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10130,7 +10188,7 @@
       </c>
       <c r="G61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10138,7 +10196,7 @@
       </c>
       <c r="I61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10150,11 +10208,11 @@
       </c>
       <c r="C62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10162,7 +10220,7 @@
       </c>
       <c r="F62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10186,23 +10244,23 @@
       </c>
       <c r="C63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>6</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D63" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
-      </c>
-      <c r="E63" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
       <c r="F63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10210,7 +10268,7 @@
       </c>
       <c r="I63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10222,23 +10280,23 @@
       </c>
       <c r="C64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10246,7 +10304,7 @@
       </c>
       <c r="I64" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10258,27 +10316,27 @@
       </c>
       <c r="C65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>8</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D65" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
-      </c>
-      <c r="E65" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10294,19 +10352,19 @@
       </c>
       <c r="C66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10318,7 +10376,7 @@
       </c>
       <c r="I66" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10338,11 +10396,11 @@
       </c>
       <c r="E67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10366,19 +10424,19 @@
       </c>
       <c r="C68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10402,19 +10460,19 @@
       </c>
       <c r="C69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10426,7 +10484,7 @@
       </c>
       <c r="I69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10438,7 +10496,7 @@
       </c>
       <c r="C70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10450,7 +10508,7 @@
       </c>
       <c r="F70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10462,7 +10520,7 @@
       </c>
       <c r="I70" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10474,19 +10532,19 @@
       </c>
       <c r="C71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10510,19 +10568,19 @@
       </c>
       <c r="C72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10530,7 +10588,7 @@
       </c>
       <c r="H72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10546,23 +10604,23 @@
       </c>
       <c r="C73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>5</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F73" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>9</v>
       </c>
-      <c r="E73" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F73" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
-      </c>
       <c r="G73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10570,7 +10628,7 @@
       </c>
       <c r="I73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10582,15 +10640,15 @@
       </c>
       <c r="C74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10598,7 +10656,7 @@
       </c>
       <c r="G74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10618,20 +10676,20 @@
       </c>
       <c r="C75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>7</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>10</v>
       </c>
-      <c r="E75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-      <c r="F75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
       <c r="G75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
@@ -10642,7 +10700,7 @@
       </c>
       <c r="I75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10654,19 +10712,19 @@
       </c>
       <c r="C76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10674,7 +10732,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10690,11 +10748,11 @@
       </c>
       <c r="C77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10702,7 +10760,7 @@
       </c>
       <c r="F77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10710,11 +10768,11 @@
       </c>
       <c r="H77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10726,19 +10784,19 @@
       </c>
       <c r="C78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10750,7 +10808,7 @@
       </c>
       <c r="I78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10762,23 +10820,23 @@
       </c>
       <c r="C79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>2</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E79" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
       <c r="F79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10786,7 +10844,7 @@
       </c>
       <c r="I79" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10798,19 +10856,19 @@
       </c>
       <c r="C80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10818,11 +10876,11 @@
       </c>
       <c r="H80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10834,19 +10892,19 @@
       </c>
       <c r="C81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10870,19 +10928,19 @@
       </c>
       <c r="C82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10894,7 +10952,7 @@
       </c>
       <c r="I82" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10906,19 +10964,19 @@
       </c>
       <c r="C83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10926,11 +10984,11 @@
       </c>
       <c r="H83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10942,7 +11000,7 @@
       </c>
       <c r="C84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10950,15 +11008,15 @@
       </c>
       <c r="E84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10966,7 +11024,7 @@
       </c>
       <c r="I84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10978,31 +11036,31 @@
       </c>
       <c r="C85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11018,15 +11076,15 @@
       </c>
       <c r="D86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11034,11 +11092,11 @@
       </c>
       <c r="H86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11050,19 +11108,19 @@
       </c>
       <c r="C87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11070,7 +11128,7 @@
       </c>
       <c r="H87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11086,27 +11144,27 @@
       </c>
       <c r="C88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11122,11 +11180,11 @@
       </c>
       <c r="C89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11134,7 +11192,7 @@
       </c>
       <c r="F89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11146,7 +11204,7 @@
       </c>
       <c r="I89" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11158,19 +11216,19 @@
       </c>
       <c r="C90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11182,7 +11240,7 @@
       </c>
       <c r="I90" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11194,19 +11252,19 @@
       </c>
       <c r="C91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11214,7 +11272,7 @@
       </c>
       <c r="H91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11234,7 +11292,7 @@
       </c>
       <c r="D92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11242,19 +11300,19 @@
       </c>
       <c r="F92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11266,31 +11324,31 @@
       </c>
       <c r="C93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F93" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>3</v>
       </c>
-      <c r="D93" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
-      <c r="E93" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F93" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="G93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="H93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11302,20 +11360,20 @@
       </c>
       <c r="C94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>12</v>
+      </c>
+      <c r="E94" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F94" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>10</v>
       </c>
-      <c r="E94" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F94" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
-      </c>
       <c r="G94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
@@ -11326,7 +11384,7 @@
       </c>
       <c r="I94" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11338,19 +11396,19 @@
       </c>
       <c r="C95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11362,7 +11420,7 @@
       </c>
       <c r="I95" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11374,27 +11432,27 @@
       </c>
       <c r="C96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11410,19 +11468,19 @@
       </c>
       <c r="C97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11430,7 +11488,7 @@
       </c>
       <c r="H97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11446,11 +11504,11 @@
       </c>
       <c r="C98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11458,7 +11516,7 @@
       </c>
       <c r="F98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11470,7 +11528,7 @@
       </c>
       <c r="I98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11486,27 +11544,27 @@
       </c>
       <c r="D99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11518,27 +11576,27 @@
       </c>
       <c r="C100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>6</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>9</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F100" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>5</v>
       </c>
-      <c r="D100" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
-      </c>
-      <c r="E100" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-      <c r="F100" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="G100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="H100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11554,23 +11612,23 @@
       </c>
       <c r="C101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="E101" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11578,7 +11636,7 @@
       </c>
       <c r="I101" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11590,23 +11648,23 @@
       </c>
       <c r="C102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11614,7 +11672,7 @@
       </c>
       <c r="I102" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/web/xlsx/loaddata.xlsx
+++ b/web/xlsx/loaddata.xlsx
@@ -1317,25 +1317,7 @@
     <t xml:space="preserve">bornborn197</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">simu_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Robert</t>
-    </r>
+    <t xml:space="preserve">simu_Robert</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com76</t>
@@ -1512,25 +1494,7 @@
     <t xml:space="preserve">Rin</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">simu_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Rin</t>
-    </r>
+    <t xml:space="preserve">simu_Rin</t>
   </si>
   <si>
     <t xml:space="preserve">emulate@data.com88</t>
@@ -2616,7 +2580,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2700,12 +2664,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2927,7 +2885,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2943,19 +2901,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2963,7 +2921,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3048,10 +3006,10 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="A3:A102 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -3128,10 +3086,10 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="A3:A102 B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.41"/>
@@ -3326,10 +3284,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="A3:A102 F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.14"/>
@@ -3402,7 +3360,7 @@
       </c>
       <c r="E4" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,7 +3379,7 @@
       </c>
       <c r="E5" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +3398,7 @@
       </c>
       <c r="E6" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,7 +3436,7 @@
       </c>
       <c r="E8" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,7 +3474,7 @@
       </c>
       <c r="E10" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,7 +3493,7 @@
       </c>
       <c r="E11" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,7 +3512,7 @@
       </c>
       <c r="E12" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,7 +3531,7 @@
       </c>
       <c r="E13" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,7 +3550,7 @@
       </c>
       <c r="E14" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,7 +3607,7 @@
       </c>
       <c r="E17" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,10 +3638,10 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="A3:A102 G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.14"/>
@@ -3951,10 +3909,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="A3:A102 E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4058,10 +4016,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A3:A102 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4202,10 +4160,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="A3:A102 E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4346,10 +4304,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A3:A102 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4425,10 +4383,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A3:A102 C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4504,10 +4462,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A3:A102 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
   </cols>
@@ -4564,11 +4522,12 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D95" activeCellId="0" sqref="D95"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.23"/>
@@ -4773,7 +4732,7 @@
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>65</v>
@@ -4806,7 +4765,7 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>65</v>
@@ -4839,7 +4798,7 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>65</v>
@@ -4872,7 +4831,7 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>65</v>
@@ -4905,7 +4864,7 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>64</v>
@@ -4938,7 +4897,7 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>64</v>
@@ -5004,7 +4963,7 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>64</v>
@@ -5136,7 +5095,7 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>64</v>
@@ -5169,7 +5128,7 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>64</v>
@@ -5202,7 +5161,7 @@
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>64</v>
@@ -5235,7 +5194,7 @@
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>64</v>
@@ -5268,7 +5227,7 @@
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>64</v>
@@ -5301,7 +5260,7 @@
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>64</v>
@@ -5334,7 +5293,7 @@
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>64</v>
@@ -5367,7 +5326,7 @@
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>64</v>
@@ -5433,7 +5392,7 @@
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>64</v>
@@ -5466,7 +5425,7 @@
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>64</v>
@@ -5499,7 +5458,7 @@
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>64</v>
@@ -5565,7 +5524,7 @@
       </c>
       <c r="H31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>64</v>
@@ -5631,7 +5590,7 @@
       </c>
       <c r="H33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>65</v>
@@ -5664,7 +5623,7 @@
       </c>
       <c r="H34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>65</v>
@@ -5697,7 +5656,7 @@
       </c>
       <c r="H35" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>65</v>
@@ -5730,7 +5689,7 @@
       </c>
       <c r="H36" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>64</v>
@@ -5763,7 +5722,7 @@
       </c>
       <c r="H37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>64</v>
@@ -5862,7 +5821,7 @@
       </c>
       <c r="H40" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>65</v>
@@ -5895,7 +5854,7 @@
       </c>
       <c r="H41" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>65</v>
@@ -5928,7 +5887,7 @@
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>65</v>
@@ -5961,7 +5920,7 @@
       </c>
       <c r="H43" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>65</v>
@@ -5994,7 +5953,7 @@
       </c>
       <c r="H44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>64</v>
@@ -6027,7 +5986,7 @@
       </c>
       <c r="H45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>64</v>
@@ -6060,7 +6019,7 @@
       </c>
       <c r="H46" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>64</v>
@@ -6093,7 +6052,7 @@
       </c>
       <c r="H47" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>64</v>
@@ -6126,7 +6085,7 @@
       </c>
       <c r="H48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>65</v>
@@ -6159,7 +6118,7 @@
       </c>
       <c r="H49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>65</v>
@@ -6192,7 +6151,7 @@
       </c>
       <c r="H50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>65</v>
@@ -6291,7 +6250,7 @@
       </c>
       <c r="H53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>64</v>
@@ -6324,7 +6283,7 @@
       </c>
       <c r="H54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>64</v>
@@ -6357,7 +6316,7 @@
       </c>
       <c r="H55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>64</v>
@@ -6390,7 +6349,7 @@
       </c>
       <c r="H56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>64</v>
@@ -6423,7 +6382,7 @@
       </c>
       <c r="H57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>65</v>
@@ -6522,7 +6481,7 @@
       </c>
       <c r="H60" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>65</v>
@@ -6555,7 +6514,7 @@
       </c>
       <c r="H61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>65</v>
@@ -6588,7 +6547,7 @@
       </c>
       <c r="H62" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>65</v>
@@ -6621,7 +6580,7 @@
       </c>
       <c r="H63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>65</v>
@@ -6654,7 +6613,7 @@
       </c>
       <c r="H64" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>64</v>
@@ -6720,7 +6679,7 @@
       </c>
       <c r="H66" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>64</v>
@@ -6753,7 +6712,7 @@
       </c>
       <c r="H67" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>64</v>
@@ -6786,7 +6745,7 @@
       </c>
       <c r="H68" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>65</v>
@@ -6819,7 +6778,7 @@
       </c>
       <c r="H69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>65</v>
@@ -6852,7 +6811,7 @@
       </c>
       <c r="H70" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>65</v>
@@ -6951,7 +6910,7 @@
       </c>
       <c r="H73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>64</v>
@@ -6984,7 +6943,7 @@
       </c>
       <c r="H74" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>64</v>
@@ -7017,7 +6976,7 @@
       </c>
       <c r="H75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>64</v>
@@ -7050,7 +7009,7 @@
       </c>
       <c r="H76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>65</v>
@@ -7116,7 +7075,7 @@
       </c>
       <c r="H78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>65</v>
@@ -7182,7 +7141,7 @@
       </c>
       <c r="H80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>65</v>
@@ -7215,7 +7174,7 @@
       </c>
       <c r="H81" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>65</v>
@@ -7248,7 +7207,7 @@
       </c>
       <c r="H82" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>65</v>
@@ -7281,7 +7240,7 @@
       </c>
       <c r="H83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>65</v>
@@ -7314,7 +7273,7 @@
       </c>
       <c r="H84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84" s="11" t="s">
         <v>65</v>
@@ -7347,7 +7306,7 @@
       </c>
       <c r="H85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>65</v>
@@ -7380,7 +7339,7 @@
       </c>
       <c r="H86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>65</v>
@@ -7413,7 +7372,7 @@
       </c>
       <c r="H87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" s="11" t="s">
         <v>65</v>
@@ -7446,7 +7405,7 @@
       </c>
       <c r="H88" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>65</v>
@@ -7479,7 +7438,7 @@
       </c>
       <c r="H89" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>65</v>
@@ -7512,7 +7471,7 @@
       </c>
       <c r="H90" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>65</v>
@@ -7545,7 +7504,7 @@
       </c>
       <c r="H91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>65</v>
@@ -7611,7 +7570,7 @@
       </c>
       <c r="H93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>65</v>
@@ -7644,7 +7603,7 @@
       </c>
       <c r="H94" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>65</v>
@@ -7677,7 +7636,7 @@
       </c>
       <c r="H95" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>65</v>
@@ -7710,7 +7669,7 @@
       </c>
       <c r="H96" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>65</v>
@@ -7743,7 +7702,7 @@
       </c>
       <c r="H97" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>65</v>
@@ -7776,7 +7735,7 @@
       </c>
       <c r="H98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>65</v>
@@ -7809,7 +7768,7 @@
       </c>
       <c r="H99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>65</v>
@@ -7875,7 +7834,7 @@
       </c>
       <c r="H101" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>65</v>
@@ -8044,10 +8003,10 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="A3:A102 J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.57"/>
@@ -8117,11 +8076,11 @@
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8129,7 +8088,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8155,7 +8114,7 @@
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8163,7 +8122,7 @@
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8189,7 +8148,7 @@
       </c>
       <c r="F5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8201,7 +8160,7 @@
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8219,7 +8178,7 @@
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8231,11 +8190,11 @@
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,11 +8216,11 @@
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8269,7 +8228,7 @@
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8291,15 +8250,15 @@
       </c>
       <c r="F8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8322,11 +8281,11 @@
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8350,26 +8309,26 @@
       </c>
       <c r="C10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8385,22 +8344,22 @@
       </c>
       <c r="C11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8420,7 +8379,7 @@
       </c>
       <c r="C12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1</v>
@@ -8435,7 +8394,7 @@
       </c>
       <c r="G12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8455,7 +8414,7 @@
       </c>
       <c r="C13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1</v>
@@ -8466,7 +8425,7 @@
       </c>
       <c r="F13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8478,7 +8437,7 @@
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8490,7 +8449,7 @@
       </c>
       <c r="C14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -8501,7 +8460,7 @@
       </c>
       <c r="F14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8509,11 +8468,11 @@
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8525,22 +8484,22 @@
       </c>
       <c r="C15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="G15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8548,7 +8507,7 @@
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8560,7 +8519,7 @@
       </c>
       <c r="C16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1</v>
@@ -8571,7 +8530,7 @@
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8579,7 +8538,7 @@
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8595,30 +8554,30 @@
       </c>
       <c r="C17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8630,7 +8589,7 @@
       </c>
       <c r="C18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>1</v>
@@ -8645,15 +8604,15 @@
       </c>
       <c r="G18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,7 +8624,7 @@
       </c>
       <c r="C19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>1</v>
@@ -8676,11 +8635,11 @@
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8700,18 +8659,18 @@
       </c>
       <c r="C20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8735,14 +8694,14 @@
       </c>
       <c r="C21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8750,7 +8709,7 @@
       </c>
       <c r="G21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8758,7 +8717,7 @@
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8770,30 +8729,30 @@
       </c>
       <c r="C22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
       <c r="G22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8805,7 +8764,7 @@
       </c>
       <c r="C23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>1</v>
@@ -8816,19 +8775,19 @@
       </c>
       <c r="F23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8844,11 +8803,11 @@
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8860,11 +8819,11 @@
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8876,19 +8835,19 @@
       </c>
       <c r="C25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8912,15 +8871,15 @@
       </c>
       <c r="C26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8932,11 +8891,11 @@
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8948,31 +8907,31 @@
       </c>
       <c r="C27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8984,11 +8943,11 @@
       </c>
       <c r="C28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -8996,15 +8955,15 @@
       </c>
       <c r="F28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9020,31 +8979,31 @@
       </c>
       <c r="C29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9056,7 +9015,7 @@
       </c>
       <c r="C30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9064,15 +9023,15 @@
       </c>
       <c r="E30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9092,19 +9051,19 @@
       </c>
       <c r="C31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9116,7 +9075,7 @@
       </c>
       <c r="I31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,11 +9087,11 @@
       </c>
       <c r="C32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9140,7 +9099,7 @@
       </c>
       <c r="F32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9148,11 +9107,11 @@
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9164,31 +9123,31 @@
       </c>
       <c r="C33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,7 +9159,7 @@
       </c>
       <c r="C34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9208,15 +9167,15 @@
       </c>
       <c r="E34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9224,7 +9183,7 @@
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,31 +9195,31 @@
       </c>
       <c r="C35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
-      <c r="E35" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F35" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
-      </c>
       <c r="G35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9272,23 +9231,23 @@
       </c>
       <c r="C36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9296,7 +9255,7 @@
       </c>
       <c r="I36" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9308,11 +9267,11 @@
       </c>
       <c r="C37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9320,15 +9279,15 @@
       </c>
       <c r="F37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9344,23 +9303,23 @@
       </c>
       <c r="C38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>3</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E38" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9368,7 +9327,7 @@
       </c>
       <c r="I38" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9380,19 +9339,19 @@
       </c>
       <c r="C39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>7</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
       <c r="F39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9400,7 +9359,7 @@
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9416,23 +9375,23 @@
       </c>
       <c r="C40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9452,23 +9411,23 @@
       </c>
       <c r="C41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9476,7 +9435,7 @@
       </c>
       <c r="I41" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9492,15 +9451,15 @@
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9508,11 +9467,11 @@
       </c>
       <c r="H42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9524,23 +9483,23 @@
       </c>
       <c r="C43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9548,7 +9507,7 @@
       </c>
       <c r="I43" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9560,23 +9519,23 @@
       </c>
       <c r="C44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9584,7 +9543,7 @@
       </c>
       <c r="I44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9596,19 +9555,19 @@
       </c>
       <c r="C45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>5</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E45" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
       <c r="F45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9616,7 +9575,7 @@
       </c>
       <c r="H45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9632,23 +9591,23 @@
       </c>
       <c r="C46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>12</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>5</v>
       </c>
-      <c r="D46" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F46" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="G46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9656,7 +9615,7 @@
       </c>
       <c r="I46" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9672,7 +9631,7 @@
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9680,7 +9639,7 @@
       </c>
       <c r="F47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9692,7 +9651,7 @@
       </c>
       <c r="I47" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9704,11 +9663,11 @@
       </c>
       <c r="C48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9716,11 +9675,11 @@
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9728,7 +9687,7 @@
       </c>
       <c r="I48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9740,19 +9699,19 @@
       </c>
       <c r="C49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9760,11 +9719,11 @@
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9780,19 +9739,19 @@
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="F50" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="G50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9800,7 +9759,7 @@
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9812,19 +9771,19 @@
       </c>
       <c r="C51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9832,11 +9791,11 @@
       </c>
       <c r="H51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9848,23 +9807,23 @@
       </c>
       <c r="C52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9872,7 +9831,7 @@
       </c>
       <c r="I52" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9888,15 +9847,15 @@
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9908,7 +9867,7 @@
       </c>
       <c r="I53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9920,27 +9879,27 @@
       </c>
       <c r="C54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9956,23 +9915,23 @@
       </c>
       <c r="C55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9980,7 +9939,7 @@
       </c>
       <c r="I55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9992,19 +9951,19 @@
       </c>
       <c r="C56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10016,7 +9975,7 @@
       </c>
       <c r="I56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10028,19 +9987,19 @@
       </c>
       <c r="C57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10048,11 +10007,11 @@
       </c>
       <c r="H57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10064,11 +10023,11 @@
       </c>
       <c r="C58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10076,11 +10035,11 @@
       </c>
       <c r="F58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10088,7 +10047,7 @@
       </c>
       <c r="I58" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10100,19 +10059,19 @@
       </c>
       <c r="C59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D59" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
-      </c>
-      <c r="E59" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10124,7 +10083,7 @@
       </c>
       <c r="I59" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10136,23 +10095,23 @@
       </c>
       <c r="C60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10176,15 +10135,15 @@
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10192,11 +10151,11 @@
       </c>
       <c r="H61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10208,23 +10167,23 @@
       </c>
       <c r="C62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>1</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>11</v>
       </c>
-      <c r="E62" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F62" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
       <c r="G62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10232,7 +10191,7 @@
       </c>
       <c r="I62" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10244,19 +10203,19 @@
       </c>
       <c r="C63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10280,27 +10239,27 @@
       </c>
       <c r="C64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10316,23 +10275,23 @@
       </c>
       <c r="C65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10340,7 +10299,7 @@
       </c>
       <c r="I65" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10352,7 +10311,7 @@
       </c>
       <c r="C66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10360,11 +10319,11 @@
       </c>
       <c r="E66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10388,19 +10347,19 @@
       </c>
       <c r="C67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10412,7 +10371,7 @@
       </c>
       <c r="I67" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10424,23 +10383,23 @@
       </c>
       <c r="C68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10448,7 +10407,7 @@
       </c>
       <c r="I68" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10460,19 +10419,19 @@
       </c>
       <c r="C69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10484,7 +10443,7 @@
       </c>
       <c r="I69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10500,7 +10459,7 @@
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10508,7 +10467,7 @@
       </c>
       <c r="F70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10520,7 +10479,7 @@
       </c>
       <c r="I70" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10532,19 +10491,19 @@
       </c>
       <c r="C71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10552,7 +10511,7 @@
       </c>
       <c r="H71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10568,27 +10527,27 @@
       </c>
       <c r="C72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10604,31 +10563,31 @@
       </c>
       <c r="C73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10640,15 +10599,15 @@
       </c>
       <c r="C74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10664,7 +10623,7 @@
       </c>
       <c r="I74" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10676,31 +10635,31 @@
       </c>
       <c r="C75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>7</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>5</v>
       </c>
-      <c r="D75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
-      </c>
       <c r="G75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="H75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10724,7 +10683,7 @@
       </c>
       <c r="F76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10732,7 +10691,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10748,31 +10707,31 @@
       </c>
       <c r="C77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10784,23 +10743,23 @@
       </c>
       <c r="C78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10808,7 +10767,7 @@
       </c>
       <c r="I78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10820,23 +10779,23 @@
       </c>
       <c r="C79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10856,20 +10815,20 @@
       </c>
       <c r="C80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>6</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>9</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F80" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="D80" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
-      </c>
-      <c r="E80" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F80" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
       <c r="G80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
@@ -10880,7 +10839,7 @@
       </c>
       <c r="I80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10892,31 +10851,31 @@
       </c>
       <c r="C81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>3</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D81" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
-      </c>
-      <c r="E81" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
       <c r="F81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10928,11 +10887,11 @@
       </c>
       <c r="C82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10940,11 +10899,11 @@
       </c>
       <c r="F82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10964,23 +10923,23 @@
       </c>
       <c r="C83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11000,11 +10959,11 @@
       </c>
       <c r="C84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11012,7 +10971,7 @@
       </c>
       <c r="F84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11020,7 +10979,7 @@
       </c>
       <c r="H84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11040,15 +10999,15 @@
       </c>
       <c r="D85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11056,7 +11015,7 @@
       </c>
       <c r="H85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11072,19 +11031,19 @@
       </c>
       <c r="C86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11092,7 +11051,7 @@
       </c>
       <c r="H86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11108,19 +11067,19 @@
       </c>
       <c r="C87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11132,7 +11091,7 @@
       </c>
       <c r="I87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11144,11 +11103,11 @@
       </c>
       <c r="C88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11160,11 +11119,11 @@
       </c>
       <c r="G88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11180,23 +11139,23 @@
       </c>
       <c r="C89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11220,27 +11179,27 @@
       </c>
       <c r="D90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11252,23 +11211,23 @@
       </c>
       <c r="C91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11276,7 +11235,7 @@
       </c>
       <c r="I91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11288,31 +11247,31 @@
       </c>
       <c r="C92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>3</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F92" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="D92" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
-      <c r="E92" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F92" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
       <c r="G92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="H92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11324,27 +11283,27 @@
       </c>
       <c r="C93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11360,11 +11319,11 @@
       </c>
       <c r="C94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11372,11 +11331,11 @@
       </c>
       <c r="F94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11400,15 +11359,15 @@
       </c>
       <c r="D95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11420,7 +11379,7 @@
       </c>
       <c r="I95" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11432,23 +11391,23 @@
       </c>
       <c r="C96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11472,11 +11431,11 @@
       </c>
       <c r="D97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11484,7 +11443,7 @@
       </c>
       <c r="G97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11508,15 +11467,15 @@
       </c>
       <c r="D98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11524,11 +11483,11 @@
       </c>
       <c r="H98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11544,15 +11503,15 @@
       </c>
       <c r="D99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11560,11 +11519,11 @@
       </c>
       <c r="H99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11580,19 +11539,19 @@
       </c>
       <c r="D100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11600,7 +11559,7 @@
       </c>
       <c r="I100" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11612,11 +11571,11 @@
       </c>
       <c r="C101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11624,11 +11583,11 @@
       </c>
       <c r="F101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11636,7 +11595,7 @@
       </c>
       <c r="I101" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11648,19 +11607,19 @@
       </c>
       <c r="C102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11672,7 +11631,7 @@
       </c>
       <c r="I102" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
